--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H2">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N2">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P2">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q2">
-        <v>72.00833660938446</v>
+        <v>32.939836972864</v>
       </c>
       <c r="R2">
-        <v>648.0750294844602</v>
+        <v>296.458532755776</v>
       </c>
       <c r="S2">
-        <v>0.0008622253488370878</v>
+        <v>0.0002670991971761224</v>
       </c>
       <c r="T2">
-        <v>0.0008622253488370878</v>
+        <v>0.0002670991971761224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H3">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P3">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q3">
-        <v>21.41610928820334</v>
+        <v>11.556033575096</v>
       </c>
       <c r="R3">
-        <v>192.74498359383</v>
+        <v>104.004302175864</v>
       </c>
       <c r="S3">
-        <v>0.0002564357569030113</v>
+        <v>9.370438879194269E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002564357569030113</v>
+        <v>9.370438879194267E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H4">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N4">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O4">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P4">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q4">
-        <v>482.6578106855034</v>
+        <v>434.2146304518</v>
       </c>
       <c r="R4">
-        <v>4343.920296169531</v>
+        <v>3907.9316740662</v>
       </c>
       <c r="S4">
-        <v>0.005779328044261717</v>
+        <v>0.003520915397709649</v>
       </c>
       <c r="T4">
-        <v>0.005779328044261716</v>
+        <v>0.003520915397709648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H5">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N5">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P5">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q5">
-        <v>32.78214734569001</v>
+        <v>14.69393191005067</v>
       </c>
       <c r="R5">
-        <v>295.0393261112101</v>
+        <v>132.245387190456</v>
       </c>
       <c r="S5">
-        <v>0.0003925323061424902</v>
+        <v>0.0001191486594110456</v>
       </c>
       <c r="T5">
-        <v>0.0003925323061424901</v>
+        <v>0.0001191486594110456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J6">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N6">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P6">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q6">
-        <v>9638.455769284179</v>
+        <v>8171.050690894725</v>
       </c>
       <c r="R6">
-        <v>86746.10192355761</v>
+        <v>73539.45621805252</v>
       </c>
       <c r="S6">
-        <v>0.1154105382686875</v>
+        <v>0.06625658413007082</v>
       </c>
       <c r="T6">
-        <v>0.1154105382686875</v>
+        <v>0.06625658413007081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J7">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P7">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q7">
         <v>2866.587840297405</v>
@@ -883,10 +883,10 @@
         <v>25799.29056267664</v>
       </c>
       <c r="S7">
-        <v>0.03432442432298135</v>
+        <v>0.02324429569609068</v>
       </c>
       <c r="T7">
-        <v>0.03432442432298135</v>
+        <v>0.02324429569609067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J8">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N8">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O8">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P8">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q8">
-        <v>64604.68577725042</v>
+        <v>107711.2117789967</v>
       </c>
       <c r="R8">
-        <v>581442.1719952538</v>
+        <v>969400.9060109699</v>
       </c>
       <c r="S8">
-        <v>0.7735742881129214</v>
+        <v>0.8733977103996543</v>
       </c>
       <c r="T8">
-        <v>0.7735742881129213</v>
+        <v>0.8733977103996542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J9">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N9">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P9">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q9">
-        <v>4387.954118807006</v>
+        <v>3644.974399372091</v>
       </c>
       <c r="R9">
-        <v>39491.58706926306</v>
+        <v>32804.76959434881</v>
       </c>
       <c r="S9">
-        <v>0.05254121187790967</v>
+        <v>0.02955599739615699</v>
       </c>
       <c r="T9">
-        <v>0.05254121187790965</v>
+        <v>0.02955599739615699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H10">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N10">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P10">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q10">
-        <v>160.3841293855111</v>
+        <v>22.49664037585066</v>
       </c>
       <c r="R10">
-        <v>1443.4571644696</v>
+        <v>202.469763382656</v>
       </c>
       <c r="S10">
-        <v>0.001920434055538685</v>
+        <v>0.0001824184675989671</v>
       </c>
       <c r="T10">
-        <v>0.001920434055538685</v>
+        <v>0.0001824184675989671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H11">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P11">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q11">
-        <v>47.70008869453333</v>
+        <v>7.892325991909333</v>
       </c>
       <c r="R11">
-        <v>429.3007982508</v>
+        <v>71.03093392718399</v>
       </c>
       <c r="S11">
-        <v>0.0005711592233730895</v>
+        <v>6.399648966167728E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005711592233730895</v>
+        <v>6.399648966167728E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H12">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N12">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O12">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P12">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q12">
-        <v>1075.023482042533</v>
+        <v>296.5518741108</v>
       </c>
       <c r="R12">
-        <v>9675.211338382798</v>
+        <v>2668.9668669972</v>
       </c>
       <c r="S12">
-        <v>0.01287229424337771</v>
+        <v>0.00240464965146372</v>
       </c>
       <c r="T12">
-        <v>0.01287229424337771</v>
+        <v>0.00240464965146372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H13">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N13">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P13">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q13">
-        <v>73.01565914439999</v>
+        <v>10.03538973674844</v>
       </c>
       <c r="R13">
-        <v>657.1409322996</v>
+        <v>90.31850763073599</v>
       </c>
       <c r="S13">
-        <v>0.0008742869942665151</v>
+        <v>8.137394681835159E-05</v>
       </c>
       <c r="T13">
-        <v>0.000874286994266515</v>
+        <v>8.137394681835159E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H14">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I14">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J14">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.167735333333333</v>
+        <v>2.685464</v>
       </c>
       <c r="N14">
-        <v>9.503206</v>
+        <v>8.056392000000001</v>
       </c>
       <c r="O14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="P14">
-        <v>0.1182666224938439</v>
+        <v>0.06676031826184478</v>
       </c>
       <c r="Q14">
-        <v>6.132038703559998</v>
+        <v>6.686210977301333</v>
       </c>
       <c r="R14">
-        <v>55.18834833203999</v>
+        <v>60.17589879571201</v>
       </c>
       <c r="S14">
-        <v>7.34248207806885E-05</v>
+        <v>5.421646699886768E-05</v>
       </c>
       <c r="T14">
-        <v>7.342482078068849E-05</v>
+        <v>5.421646699886768E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H15">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I15">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J15">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.826363</v>
       </c>
       <c r="O15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="P15">
-        <v>0.03517385669126484</v>
+        <v>0.02342101692711854</v>
       </c>
       <c r="Q15">
-        <v>1.82373898938</v>
+        <v>2.345672767218667</v>
       </c>
       <c r="R15">
-        <v>16.41365090442</v>
+        <v>21.111054904968</v>
       </c>
       <c r="S15">
-        <v>2.183738800739131E-05</v>
+        <v>1.902035257424424E-05</v>
       </c>
       <c r="T15">
-        <v>2.18373880073913E-05</v>
+        <v>1.902035257424424E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H16">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I16">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J16">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.232711</v>
+        <v>35.399925</v>
       </c>
       <c r="N16">
-        <v>63.698133</v>
+        <v>106.199775</v>
       </c>
       <c r="O16">
-        <v>0.7927180626278817</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="P16">
-        <v>0.7927180626278816</v>
+        <v>0.8800379597140142</v>
       </c>
       <c r="Q16">
-        <v>41.10185729957999</v>
+        <v>88.1379780666</v>
       </c>
       <c r="R16">
-        <v>369.9167156962199</v>
+        <v>793.2418025994</v>
       </c>
       <c r="S16">
-        <v>0.0004921522273209126</v>
+        <v>0.0007146842651865342</v>
       </c>
       <c r="T16">
-        <v>0.0004921522273209124</v>
+        <v>0.0007146842651865342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H17">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I17">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J17">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.442127</v>
+        <v>1.197942333333333</v>
       </c>
       <c r="N17">
-        <v>4.326381</v>
+        <v>3.593827</v>
       </c>
       <c r="O17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="P17">
-        <v>0.05384145818700962</v>
+        <v>0.02978070509702244</v>
       </c>
       <c r="Q17">
-        <v>2.79164060406</v>
+        <v>2.982611265430223</v>
       </c>
       <c r="R17">
-        <v>25.12476543654</v>
+        <v>26.843501388872</v>
       </c>
       <c r="S17">
-        <v>3.342700869095924E-05</v>
+        <v>2.418509463605292E-05</v>
       </c>
       <c r="T17">
-        <v>3.342700869095922E-05</v>
+        <v>2.418509463605292E-05</v>
       </c>
     </row>
   </sheetData>
